--- a/Trabalho Arquitetura Requisitos Funcionais.xlsx
+++ b/Trabalho Arquitetura Requisitos Funcionais.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="114">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -138,6 +138,253 @@
   </si>
   <si>
     <t>Infraestrutura de TI</t>
+  </si>
+  <si>
+    <t>2.3.2.7.6 Suportar processamento em ambiente virtualizado.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.8 Suportar virtualização por meio da ferramenta Vmware 5.0 ou versões superiores.</t>
+  </si>
+  <si>
+    <t>2.3.3 Dados e Armazenamento</t>
+  </si>
+  <si>
+    <t>2.3.3.9 Gerir a guarda de arquivos de dados eletrônicos informados pelo usuário.</t>
+  </si>
+  <si>
+    <t>2.3.3.11 Prover mecanismo que permita anexar documentos eletrônicos ou imagens.</t>
+  </si>
+  <si>
+    <t>2.3.4 Operação e monitoração</t>
+  </si>
+  <si>
+    <t>2.3.5 Usabilidade</t>
+  </si>
+  <si>
+    <t>2.3.5.1 Toda a interface do software com o usuário deve estar em português do Brasil.</t>
+  </si>
+  <si>
+    <t>2.3.5.2 Toda a interface do software dever ser gráfica (Graphical User Interface - GUI).</t>
+  </si>
+  <si>
+    <t>2.3.6 Recursos de Acesso e Segurança</t>
+  </si>
+  <si>
+    <t>2.3.6.7 Implementar o gerenciamento de restrições de acesso por usuário e por grupo de usuários.</t>
+  </si>
+  <si>
+    <t>2.3.7 Redes</t>
+  </si>
+  <si>
+    <t>2.3.7.1 O software deve ser compatível com os protocolos IP (Internet Protocol) versão 4.</t>
+  </si>
+  <si>
+    <t>2.3.7.2 O software deve ser compatível com os serviços DNS (Domain Name Server).</t>
+  </si>
+  <si>
+    <t>1 Arquitetura da Aplicação</t>
+  </si>
+  <si>
+    <t>Requisitos Não Funcionais</t>
+  </si>
+  <si>
+    <t>1.1 Estar em conformidade nos requisitos funcionais solicitados neste documento, com a especificação JEE 1.5 (Java Enterprise Edition) e suas versões superiores.</t>
+  </si>
+  <si>
+    <t>1.2 Ser compatível com a especificação JEE 5 e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>1.3 Respeitar as restrições declaradas na especificação JEE 1.5 (Java Enterprise Edition) e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>1.4 Prover todas as bibliotecas (open-source ou comerciais) ou produtos de terceiros necessários à execução do software nas mesmas condições de garantia, suporte, manutenção e atualização dada ao software principal sem ônus adicionais.</t>
+  </si>
+  <si>
+    <t>1.5 Prover interface para usuários por meio de navegador web para todas as funcionalidades.</t>
+  </si>
+  <si>
+    <t>1.6 Prover o balanceamento de carga entre as interfaces clientes e os servidores da camada de apresentação.</t>
+  </si>
+  <si>
+    <t>1.7 Prover instalação dos servidores do software em ambiente com virtualização.</t>
+  </si>
+  <si>
+    <t>1.8 Prover a execução dos servidores do software em cluster.</t>
+  </si>
+  <si>
+    <t>1.9 Fornecer interface web por meio de componentes executados em container Web de servidores de aplicação certificados para a especificação JEE 1.5 nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>1.10 Utilizar a tecnologia JDBC (Java Database Conectivity) com Data Source para a persistência de dados em Sistemas Gerenciadores de Banco de Dados Relacionais.</t>
+  </si>
+  <si>
+    <t>1.11 Utilizar a API especificada pela JSR 170 (Java Specification Request) para gestão de repositório de documentos anexados ao Processo de Negócio.</t>
+  </si>
+  <si>
+    <t>2 Processamento</t>
+  </si>
+  <si>
+    <t>2.1 Processamento dos Componentes Clientes</t>
+  </si>
+  <si>
+    <t>2.2 Suportar os seguintes sistemas operacionais: Microsoft Windows XP Professional, Microsoft Windows Vista Business, Microsoft Windows 7 Professional, Microsoft Windows 8, para o acesso via cliente browser e versões superiores.</t>
+  </si>
+  <si>
+    <t>2.3 Suportar os sistemas operacionais Linux Open SUSE 12.1 e superiores; e Linux Ubuntu 12.04 e versões superiores.</t>
+  </si>
+  <si>
+    <t>2.4 Suportar browser Internet Explorer versão 6.0 e versões superiores.</t>
+  </si>
+  <si>
+    <t>2.5 Suportar browser Mozilla Firefox versão 10.0 e versões superiores.</t>
+  </si>
+  <si>
+    <t>2.7 Processamento dos Componentes Servidores</t>
+  </si>
+  <si>
+    <t>2.6 Prover as dependências do aplicativo referente às características do host (nome, endereço IP, diretórios ou filesystems, ou qualquer outra) de forma que estas sejam customizáveis em arquivo de configuração.</t>
+  </si>
+  <si>
+    <t>2.7.1 Suportar a especificação JEE 1.5 (Java Enterprise Edition) e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>2.7.2 Fornecer interface web por meio de componentes executados no Container Web de servidores de aplicações certificados para a especificação JEE 1.5 (Java Enterprise Edition) e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>2.3.7.4 O software deve suportar a configuração do número da porta TCP/UDP de todos os seus componentes.</t>
+  </si>
+  <si>
+    <t>2.3.7.3 O software deve ser compatível com os seguintes protocolos de transporte: TCP (Transmission Control Protocol) ou UDP (User Datagram Protocol).</t>
+  </si>
+  <si>
+    <t>2.3.6.10 Deve manter logs de transações efetuadas, bem como de autorizações concedidas e excluídas, contendo, no mínimo, data, hora e usuário.</t>
+  </si>
+  <si>
+    <t>2.3.6.9 Deve prover trilhas de auditoria que registrem os movimentos (transações) executados pelos usuários com o objetivo de permitir o controle sobre os aspectos administrativos, suporte e atuação dos usuários no software.</t>
+  </si>
+  <si>
+    <t>2.3.6.8 Disponibilizar recursos para auditoria de logs, contendo as transações realizadas pelos diversos usuários.</t>
+  </si>
+  <si>
+    <t>2.3.6.6 Prover mecanismos de segregação de usuários por papel (nível) de atuação (usuários, operadores, suporte, administração e outros papéis que se deseja criar).</t>
+  </si>
+  <si>
+    <t>2.3.6.5 Prover ferramentas para definição de políticas, tais como permissões diferenciadas por grupo de usuários.</t>
+  </si>
+  <si>
+    <t>2.3.6.4 Deve implementar o cadastramento/descadastramento de usuários e privilégios online através de interface de programação.</t>
+  </si>
+  <si>
+    <t>2.3.6.3 Deve suportar a identificação e autenticação de usuários por meio de código de usuário e senha.</t>
+  </si>
+  <si>
+    <t>2.3.6.2 Deve suportar integração com o catálogo de diretório LDAP V3 RFC 2251 para autorização de usuários a recursos e serviços.</t>
+  </si>
+  <si>
+    <t>2.3.6.1 Deve suportar integração com o catálogo de diretório LDAP V3 RFC 2251 para identificação e autenticação de usuários.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.3 Fornecer a lógica de negócio por meio de componentes EJB (Enterprise Java Beans) executados em Container EJB de servidores de aplicação certificados para a especificação DITEC/UES/GEARQ JEE 1.5 (Java Enterprise Edition) e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.4 Suportar a instalação em servidores de aplicativo JEE WebSphere versão 7.0 e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.5 Suportar a instalação em servidores de aplicativo JEE WebLogic versão 10.3 e versões superiores nos requisitos funcionais solicitados neste documento.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.7 Suportar virtualização por meio da ferramenta Microsoft Hyper-v 2.0.4521 SP1 ou versões superiores.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.9 Suportar a instalação direta no sistema operacional RedHat com hardware x86 para servidor de aplicação.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.10 Suportar a instalação direta no sistema operacional SuSe com hardware x86 para servidor de aplicação.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.11 Suportar a instalação direta no sistema operacional Solaris com processador Sparc para servidor de aplicação.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.12 Suportar a instalação direta no sistema operacional RedHat com hardware IBM zSeries para servidor de aplicação.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.13 Suportar a instalação direta no sistema operacional Windows com hardware x86 para servidor de aplicação.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.14 Suportar a instalação direta no sistema operacional AIX com hardware IBM pSeries para servidor de banco de dados.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.15 Suportar a instalação direta no sistema operacional RedHat com hardware x86 para servidor de banco de dados.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.16 Suportar a instalação direta no sistema operacional SuSe com hardware x86 para servidor de banco de dados.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.17 Suportar a instalação direta no sistema operacional Windows com hardware x86 para servidor de banco de dados.</t>
+  </si>
+  <si>
+    <t>2.3.2.7.18 Suportar a instalação direta no sistema operacional Solaris com processador Sparc para servidor de banco de dados.</t>
+  </si>
+  <si>
+    <t>2.3.3.1 Prover os dados de modo que estes se apresentem de forma comum a todas as ferramentas do software, sem replicação.</t>
+  </si>
+  <si>
+    <t>3.2 Fornecer Dicionário de Dados do modelo lógico contendo as entidades com nome e texto
+de definição; os atributos com nome, texto de definição, tipo, tamanho, restrição de
+nulidade, indicador de chave primária e indicador de chave estrangeira; e, os
+relacionamentos com a entidade de origem, entidade de destino, cardinalidades na origem,
+cardinalidades no destino e regras de deleção/atualização.</t>
+  </si>
+  <si>
+    <t>2.3.3.3 Fornecer Dicionário de Dados do modelo físico contendo as tabelas com creator (ou
+owner), nome e texto de definição; as colunas com nome, texto de definição, tipo, tamanho, restrição de nulidade, indicador de chave primária e indicador de chave
+estrangeira, e os relacionamentos com a tabela de origem, tabela de destino,
+cardinalidades na origem, cardinalidades no destino e regras de deleção/atualização.</t>
+  </si>
+  <si>
+    <t>2.3.3.4 Suportar um dos seguintes SGBD (Sistemas Gerenciadores de Banco de Dados): IBMDB2 UDB versão 9.7 e versões superiores, ou SGBD Oracle versão 11g e versões superiores, ou MS SQL Server versão 2012 ou versões superiores.</t>
+  </si>
+  <si>
+    <t>2.3.3.5 Não fazer uso de Stored Procedures para implementação da lógica de negócio ou resolução de integridade referencial entre tabelas do SGBD.</t>
+  </si>
+  <si>
+    <t>2.3.3.6 Não fazer uso de Triggers para implementação da lógica de negócio ou resolução de integridade referencial entre tabelas do SGBD.</t>
+  </si>
+  <si>
+    <t>2.3.3.7 Não fazer uso de Functions para implementação da lógica de negócio ou resolução de integridade referencial entre tabelas do SGBD.</t>
+  </si>
+  <si>
+    <t>2.3.3.8 Utilizar exclusivamente a tecnologia JDBC (Java Database Conectivity) com Data Source para a persistência em Sistemas Gerenciadores de Banco de Dados Relacionais.</t>
+  </si>
+  <si>
+    <t>2.3.3.10 Suportar mecanismos para permitir a murchação e expurgo periódicos de dados, conforme regras a serem definidas pela área do negócio.</t>
+  </si>
+  <si>
+    <t>2.3.3.12 Suportar o Gerenciador de Conteúdo IBM Content Manager para guarda dos documentos recebidos por upload e recuperação de documentos já existentes na organização.</t>
+  </si>
+  <si>
+    <t>2.3.4.1O software deve fornecer recursos de notificação automáticos para fins de monitoração
+quando qualquer objeto que compõe a solução entrar ou sair do seu estado normal de
+funcionamento, considerando indisponibilidade e desempenho, enviando as informações
+através de mensagem com layout parametrizável, via comunicação TCP/IP, SNMPv2c,
+registro em arquivos de log ou tecnologia JMX. Para cada notificação deve ser fornecida
+orientação para retorno da normalidade, em manual e em conteúdo legível para ser
+reusado nos sistemas de bilhetagem interno.</t>
+  </si>
+  <si>
+    <t>2.3.4.2 O software deverá fornecer logs com registro de informações a serem utilizadas na depuração e verificação de falhas.</t>
+  </si>
+  <si>
+    <t>2.3.4.3 O software deverá fornecer recursos que permitam operação, manutenção, diagnóstico e supervisão de alarmes em console local e remota através de comunicação TCP/IP.</t>
+  </si>
+  <si>
+    <t>2.3.4.4 O software deve prover a sua monitoração pela plataforma HP Operations Manager for Unix, versão 9 e versões superiores.</t>
+  </si>
+  <si>
+    <t>2.3.4.5 O software deve ser instalada em ambiente que permita a instalação de agentes das
+ferramentas de gerenciamento do BANCO, para fins de monitoração, coleta de
+informações para planejamento de capacidade e análise de desempenho (HP Operations
+Agent versão 11 e versões superiores).</t>
   </si>
 </sst>
 </file>
@@ -187,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -247,12 +494,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -270,27 +540,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -592,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,391 +924,1268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="5"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="6"/>
     </row>
     <row r="28" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="6"/>
     </row>
     <row r="31" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="2"/>
     </row>
     <row r="32" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="3"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="5"/>
     </row>
     <row r="45" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
-      <c r="B45" s="5"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="5"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="1"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="1"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
-      <c r="B56" s="5"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="6"/>
     </row>
     <row r="57" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="5"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="6"/>
     </row>
     <row r="59" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="4"/>
     </row>
     <row r="62" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
-      <c r="B63" s="5"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="6"/>
     </row>
     <row r="64" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
-      <c r="B65" s="5"/>
-    </row>
-    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="9"/>
+    </row>
+    <row r="67" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="1"/>
+    </row>
+    <row r="68" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="1"/>
+    </row>
+    <row r="69" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" s="1"/>
+    </row>
+    <row r="70" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B79" s="1"/>
+    </row>
+    <row r="80" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="1"/>
+    </row>
+    <row r="83" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="84" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" s="11"/>
+    </row>
+    <row r="85" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="1"/>
+    </row>
+    <row r="88" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="1"/>
+    </row>
+    <row r="89" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="11"/>
+    </row>
+    <row r="90" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B91" s="1"/>
+    </row>
+    <row r="92" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="1"/>
+    </row>
+    <row r="93" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B93" s="11"/>
+    </row>
+    <row r="94" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="25"/>
+      <c r="B94" s="13"/>
+    </row>
+    <row r="95" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="11"/>
+    </row>
+    <row r="97" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="1"/>
+    </row>
+    <row r="99" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B100" s="11"/>
+    </row>
+    <row r="101" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="25"/>
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="11"/>
+    </row>
+    <row r="105" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B106" s="11"/>
+    </row>
+    <row r="107" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="13"/>
+    </row>
+    <row r="113" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="11"/>
+    </row>
+    <row r="115" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="11"/>
+    </row>
+    <row r="117" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B119" s="11"/>
+    </row>
+    <row r="120" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B122" s="11"/>
+    </row>
+    <row r="123" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="12"/>
+    </row>
+    <row r="124" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" s="11"/>
+    </row>
+    <row r="125" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B126" s="11"/>
+    </row>
+    <row r="127" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B128" s="11"/>
+    </row>
+    <row r="129" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="12"/>
+    </row>
+    <row r="130" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B130" s="11"/>
+    </row>
+    <row r="131" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" s="11"/>
+    </row>
+    <row r="133" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B134" s="11"/>
+    </row>
+    <row r="135" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B136" s="11"/>
+    </row>
+    <row r="137" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B138" s="11"/>
+    </row>
+    <row r="139" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B140" s="11"/>
+    </row>
+    <row r="141" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="12"/>
+    </row>
+    <row r="142" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B143" s="11"/>
+    </row>
+    <row r="144" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="12"/>
+    </row>
+    <row r="145" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B145" s="11"/>
+    </row>
+    <row r="146" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="26"/>
+      <c r="B146" s="13"/>
+    </row>
+    <row r="147" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26"/>
+      <c r="B147" s="13"/>
+    </row>
+    <row r="148" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="27"/>
+      <c r="B148" s="12"/>
+    </row>
+    <row r="149" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B149" s="11"/>
+    </row>
+    <row r="150" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="26"/>
+      <c r="B150" s="13"/>
+    </row>
+    <row r="151" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26"/>
+      <c r="B151" s="13"/>
+    </row>
+    <row r="152" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="26"/>
+      <c r="B152" s="13"/>
+    </row>
+    <row r="153" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="27"/>
+      <c r="B153" s="12"/>
+    </row>
+    <row r="154" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B154" s="11"/>
+    </row>
+    <row r="155" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="25"/>
+      <c r="B155" s="13"/>
+    </row>
+    <row r="156" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="12"/>
+    </row>
+    <row r="157" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B157" s="11"/>
+    </row>
+    <row r="158" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+      <c r="B158" s="12"/>
+    </row>
+    <row r="159" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B159" s="11"/>
+    </row>
+    <row r="160" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="27"/>
+      <c r="B160" s="12"/>
+    </row>
+    <row r="161" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B161" s="11"/>
+    </row>
+    <row r="162" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="15"/>
+      <c r="B162" s="12"/>
+    </row>
+    <row r="163" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="B163" s="11"/>
+    </row>
+    <row r="164" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+      <c r="B164" s="12"/>
+    </row>
+    <row r="165" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B166" s="11"/>
+    </row>
+    <row r="167" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+      <c r="B167" s="12"/>
+    </row>
+    <row r="168" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B169" s="11"/>
+    </row>
+    <row r="170" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+      <c r="B170" s="12"/>
+    </row>
+    <row r="171" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" s="32"/>
+    </row>
+    <row r="173" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="26"/>
+      <c r="B173" s="33"/>
+    </row>
+    <row r="174" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="26"/>
+      <c r="B174" s="33"/>
+    </row>
+    <row r="175" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="26"/>
+      <c r="B175" s="33"/>
+    </row>
+    <row r="176" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="26"/>
+      <c r="B176" s="33"/>
+    </row>
+    <row r="177" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="26"/>
+      <c r="B177" s="34"/>
+    </row>
+    <row r="178" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="27"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B179" s="11"/>
+    </row>
+    <row r="180" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+      <c r="B180" s="12"/>
+    </row>
+    <row r="181" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B181" s="11"/>
+    </row>
+    <row r="182" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="15"/>
+      <c r="B182" s="12"/>
+    </row>
+    <row r="183" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B183" s="11"/>
+    </row>
+    <row r="184" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="15"/>
+      <c r="B184" s="12"/>
+    </row>
+    <row r="185" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B185" s="11"/>
+    </row>
+    <row r="186" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="25"/>
+      <c r="B186" s="13"/>
+    </row>
+    <row r="187" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="25"/>
+      <c r="B187" s="13"/>
+    </row>
+    <row r="188" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="15"/>
+      <c r="B188" s="12"/>
+    </row>
+    <row r="189" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" s="1"/>
+    </row>
+    <row r="190" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B190" s="1"/>
+    </row>
+    <row r="191" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B191" s="1"/>
+    </row>
+    <row r="192" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193" s="11"/>
+    </row>
+    <row r="194" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="15"/>
+      <c r="B194" s="12"/>
+    </row>
+    <row r="195" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B195" s="11"/>
+    </row>
+    <row r="196" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="15"/>
+      <c r="B196" s="12"/>
+    </row>
+    <row r="197" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B197" s="11"/>
+    </row>
+    <row r="198" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="15"/>
+      <c r="B198" s="12"/>
+    </row>
+    <row r="199" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B199" s="11"/>
+    </row>
+    <row r="200" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="15"/>
+      <c r="B200" s="12"/>
+    </row>
+    <row r="201" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B201" s="11"/>
+    </row>
+    <row r="202" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="15"/>
+      <c r="B202" s="12"/>
+    </row>
+    <row r="203" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B203" s="11"/>
+    </row>
+    <row r="204" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="15"/>
+      <c r="B204" s="12"/>
+    </row>
+    <row r="205" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" s="1"/>
+    </row>
+    <row r="206" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B206" s="11"/>
+    </row>
+    <row r="207" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="15"/>
+      <c r="B207" s="12"/>
+    </row>
+    <row r="208" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B208" s="11"/>
+    </row>
+    <row r="209" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="25"/>
+      <c r="B209" s="13"/>
+    </row>
+    <row r="210" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="15"/>
+      <c r="B210" s="12"/>
+    </row>
+    <row r="211" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B211" s="11"/>
+    </row>
+    <row r="212" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="15"/>
+      <c r="B212" s="12"/>
+    </row>
+    <row r="213" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B213" s="1"/>
+    </row>
+    <row r="214" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B214" s="1"/>
+    </row>
+    <row r="215" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B215" s="1"/>
+    </row>
+    <row r="216" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B216" s="11"/>
+    </row>
+    <row r="217" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="15"/>
+      <c r="B217" s="12"/>
+    </row>
+    <row r="218" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B218" s="11"/>
+    </row>
+    <row r="219" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="30"/>
+      <c r="B219" s="12"/>
+    </row>
+    <row r="220" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B220" s="31"/>
+    </row>
+    <row r="221" spans="1:2" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="140">
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B145:B148"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="B154:B156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="B193:B194"/>
+    <mergeCell ref="B195:B196"/>
+    <mergeCell ref="B197:B198"/>
+    <mergeCell ref="B185:B188"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B208:B210"/>
+    <mergeCell ref="B206:B207"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="A172:A178"/>
+    <mergeCell ref="A179:A180"/>
+    <mergeCell ref="A181:A182"/>
+    <mergeCell ref="A183:A184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A154:A156"/>
+    <mergeCell ref="A157:A158"/>
+    <mergeCell ref="A159:A160"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A163:A164"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A203:A204"/>
+    <mergeCell ref="A201:A202"/>
+    <mergeCell ref="A199:A200"/>
+    <mergeCell ref="A197:A198"/>
+    <mergeCell ref="A195:A196"/>
+    <mergeCell ref="A193:A194"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="A218:A219"/>
+    <mergeCell ref="A216:A217"/>
+    <mergeCell ref="A211:A212"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A93:A95"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="A55:A56"/>
